--- a/data/trans_orig/cron_mort_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1005497566223109</v>
+        <v>0.1010437726139925</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1660869986892908</v>
+        <v>0.1645933793633964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1860637120880247</v>
+        <v>0.1862387571896874</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4315177033790322</v>
+        <v>0.4258103878551592</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1232600243115449</v>
+        <v>0.1250830662840444</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1887755600705041</v>
+        <v>0.1900597525298579</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1962544900383927</v>
+        <v>0.1987104395759311</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4540186756805437</v>
+        <v>0.4524566963485347</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1186927566396425</v>
+        <v>0.1184447070192978</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1867425741958418</v>
+        <v>0.1867631467850878</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2022053779335055</v>
+        <v>0.1997030034055681</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.455144957854086</v>
+        <v>0.4542055810138573</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1406302879689306</v>
+        <v>0.1387765517927571</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2210969543770972</v>
+        <v>0.2218583725217169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2450516919238582</v>
+        <v>0.2456836411892253</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5393186816552307</v>
+        <v>0.5369868188563219</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1615120315445439</v>
+        <v>0.1622928127514298</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.23589799976814</v>
+        <v>0.236763539973034</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2547941350939691</v>
+        <v>0.2542820514454657</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5288941381125796</v>
+        <v>0.5322993131386964</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1471706846777458</v>
+        <v>0.1460930830759863</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.221224624052843</v>
+        <v>0.2204700398220379</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2397284284717847</v>
+        <v>0.243525199576556</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.518873864610402</v>
+        <v>0.5158610541022138</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02230276613367586</v>
+        <v>0.02298755329601589</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03868900481200156</v>
+        <v>0.03772592919398916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0548921478815216</v>
+        <v>0.0554263654416058</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.171893107937144</v>
+        <v>0.1706081582954388</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01431838373159681</v>
+        <v>0.01422153147059352</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03745567837646192</v>
+        <v>0.03874565861346038</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04517737441296883</v>
+        <v>0.04581364702395598</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1329418854622967</v>
+        <v>0.1319912960154801</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.021049999809927</v>
+        <v>0.02036024407200511</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04073745380522846</v>
+        <v>0.04121363534554282</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05326847516973354</v>
+        <v>0.05371981747819733</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1565861821908107</v>
+        <v>0.1563229200446321</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03796963801377452</v>
+        <v>0.03883796764896823</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05814831221635051</v>
+        <v>0.05741048500893701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07782210263476616</v>
+        <v>0.07752548583631526</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2121768395821234</v>
+        <v>0.2128951431704214</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02930117495550681</v>
+        <v>0.02846828423583822</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05937208735424907</v>
+        <v>0.05866998056796156</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06750161808387486</v>
+        <v>0.06810530320169236</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1622994680813256</v>
+        <v>0.1610634190931088</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0316775517125165</v>
+        <v>0.03156581670529901</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05503641933941107</v>
+        <v>0.05502949029543906</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06860216316510337</v>
+        <v>0.06950384258419016</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1806675369788437</v>
+        <v>0.1813957311621656</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01242610888953781</v>
+        <v>0.01155989536217113</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01671254641451085</v>
+        <v>0.01804556357649905</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03144849120000592</v>
+        <v>0.03063849897059726</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.164365661410054</v>
+        <v>0.1675660061813098</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008254627555228482</v>
+        <v>0.008175518745461749</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01304848158158645</v>
+        <v>0.01297261231264556</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04031102316452743</v>
+        <v>0.03731093696931992</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09978602228205836</v>
+        <v>0.1009563531916603</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01299084146593581</v>
+        <v>0.01300084727884723</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01798208478645144</v>
+        <v>0.01733578740061351</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04067155895281863</v>
+        <v>0.04051061107682313</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1377801992993301</v>
+        <v>0.1398964170217832</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03810348138259625</v>
+        <v>0.03819195886973293</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05482269233377834</v>
+        <v>0.05595875997322053</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07267012021477721</v>
+        <v>0.07546647244409448</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2381851068846578</v>
+        <v>0.2391751382992249</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03323996469732572</v>
+        <v>0.03335127945276721</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04588468255621993</v>
+        <v>0.04619427841434409</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08681729097317412</v>
+        <v>0.08434165883082154</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1442649052117839</v>
+        <v>0.1444285196857323</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03046387890499901</v>
+        <v>0.03153035914590434</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04198670610527008</v>
+        <v>0.04053655567229131</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07027255906144977</v>
+        <v>0.07045341488398514</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1794847796152127</v>
+        <v>0.1826658248567041</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07740657584599356</v>
+        <v>0.07652877990752123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08728901056608797</v>
+        <v>0.08621235126531318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2203419201663658</v>
+        <v>0.2226775298339229</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09575122456904293</v>
+        <v>0.09594538526552035</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0931205033865387</v>
+        <v>0.09415609286032814</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2041252393911309</v>
+        <v>0.2038596617237961</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08935092188128181</v>
+        <v>0.08924791031874912</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09244454025760183</v>
+        <v>0.09340639431004415</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2161365581589113</v>
+        <v>0.2175797139128664</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09772642080542034</v>
+        <v>0.09776492613256103</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1075459181862312</v>
+        <v>0.1073390114085423</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2576018866917703</v>
+        <v>0.2602836911673424</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1173770141386645</v>
+        <v>0.1183086523590014</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.114800821692304</v>
+        <v>0.1156435219479706</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2303350415012761</v>
+        <v>0.230686991834647</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1044658166164925</v>
+        <v>0.1052276006157587</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1082014239634579</v>
+        <v>0.1082889894262221</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2391803147803893</v>
+        <v>0.2393636620933388</v>
       </c>
     </row>
     <row r="16">
